--- a/docs/fake_signals2.xlsx
+++ b/docs/fake_signals2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Desktop\ProductionLineMonitor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5B1B31F5-A0F4-40A3-BC15-59AAF3B04106}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{17B6C08B-37C0-438F-B5C8-A7F7F426D870}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小车运动虚拟信号" sheetId="2" r:id="rId1"/>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15"/>
@@ -2491,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F45E6E-B93E-4286-AA27-8F54F18C9482}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/docs/fake_signals2.xlsx
+++ b/docs/fake_signals2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w\Desktop\ProductionLineMonitor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{17B6C08B-37C0-438F-B5C8-A7F7F426D870}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{784D787A-4C8B-422F-9FE5-E4C8DF1164F2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小车运动虚拟信号" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>状态\信号组</t>
   </si>
@@ -206,17 +206,39 @@
   <si>
     <t>到中间</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（0）</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,6 +264,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,18 +308,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -302,22 +331,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -883,7 +915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2491,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F45E6E-B93E-4286-AA27-8F54F18C9482}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2538,8 +2570,8 @@
       <c r="A3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="3">
-        <v>1</v>
+      <c r="B3" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -2744,6 +2776,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>